--- a/docs/project-management-template.xlsx
+++ b/docs/project-management-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Persistence/Workspace/Udacity/Labs/Lab2.BuildingCICDPipeline/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C9B3C7-A25E-2A47-BBB3-BDCB39C14D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7532F1-D1BC-0F4E-9F17-8FC1A2B4FB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25640" yWindow="500" windowWidth="25560" windowHeight="26780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Week</t>
   </si>
@@ -132,6 +132,9 @@
   <si>
     <t>MY PROJECT WEEK PLAN Q1-Y22</t>
   </si>
+  <si>
+    <t>Effort Time (h)</t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +142,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -152,20 +155,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -244,11 +251,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -264,7 +268,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,45 +581,45 @@
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="19" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -623,19 +630,19 @@
       <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>44562</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>44651</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>44562</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>44651</v>
       </c>
     </row>
@@ -644,83 +651,83 @@
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="21"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -752,10 +759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307A4140-4E91-BF49-ACF0-0D005BC0E225}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -763,153 +770,162 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="22">
+      <c r="G3" s="21">
         <v>44564</v>
       </c>
-      <c r="G3" s="22">
-        <f>F3+5</f>
+      <c r="H3" s="21">
+        <f>G3+5</f>
         <v>44569</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22">
+      <c r="G4" s="21">
         <v>44571</v>
       </c>
-      <c r="G4" s="22">
+      <c r="H4" s="21">
         <v>44582</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F5" s="20"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="20"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22">
+      <c r="F7" s="20"/>
+      <c r="G7" s="21">
         <v>44578</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H7" s="21">
         <v>44582</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F8" s="20"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -917,111 +933,135 @@
         <v>24</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21">
         <v>44613</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H10" s="21">
         <v>44613</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C26" s="12"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D26" s="12"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C43" s="12"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E15">
+  <conditionalFormatting sqref="F3:F15">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
@@ -1036,10 +1076,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D15" xr:uid="{F615F304-D67F-9244-93CA-E3EABB19265B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15" xr:uid="{F615F304-D67F-9244-93CA-E3EABB19265B}">
       <formula1>"HieuVV,Jane,Thomas,Bob"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15" xr:uid="{28A77C73-3D85-B440-A36C-B7CBBDEEAB42}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F15" xr:uid="{28A77C73-3D85-B440-A36C-B7CBBDEEAB42}">
       <formula1>"N/A,NOT STARTED,IN PROGRESS,DONE,BLOCKED"</formula1>
     </dataValidation>
   </dataValidations>
